--- a/bh3/506360666929384935_2021-03-26_12-58-00.xlsx
+++ b/bh3/506360666929384935_2021-03-26_12-58-00.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,10 +560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:59:52</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44308.45824074074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -622,10 +636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:20:12</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44302.76402777778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:48:34</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44283.70039351852</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -772,10 +782,8 @@
           <t>4318653892</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:01:23</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44283.66762731481</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -844,10 +852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-28 10:45:22</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44283.4481712963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -915,10 +921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-28 07:46:11</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44283.32373842593</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -982,10 +986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-28 01:22:57</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44283.05760416666</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1057,10 +1059,8 @@
           <t>4326487231</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-28 01:17:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44283.05353009259</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1128,10 +1128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-28 01:09:25</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44283.04820601852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1207,10 +1205,8 @@
           <t>4318677542</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-28 01:08:50</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44283.04780092592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1278,10 +1274,8 @@
           <t>4326465455</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-28 01:06:48</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44283.04638888889</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1349,10 +1343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:55:13</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44283.03834490741</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1428,10 +1420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:50:08</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44283.03481481481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1495,10 +1485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:36:46</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44283.02553240741</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1566,10 +1554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:18:48</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44283.01305555556</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1646,10 +1632,8 @@
           <t>4318653892</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:12:35</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44283.00873842592</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1717,10 +1701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-27 23:36:35</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44282.98373842592</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1788,10 +1770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-27 23:09:44</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44282.9650925926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1855,10 +1835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-27 22:57:05</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44282.95630787037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1926,10 +1904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-27 22:44:25</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44282.94751157407</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2005,10 +1981,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-27 19:40:21</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44282.8196875</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2080,10 +2054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-27 19:16:52</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44282.80337962963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2151,10 +2123,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-27 18:50:09</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44282.78482638889</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2218,10 +2188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-27 18:36:32</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44282.77537037037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2297,10 +2265,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-27 17:40:55</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44282.73674768519</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2373,10 +2339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-27 17:11:18</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44282.71618055556</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2452,10 +2416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-27 17:06:51</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44282.71309027778</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2531,10 +2493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-27 15:18:57</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44282.63815972222</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2603,10 +2563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-27 14:44:14</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44282.61405092593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2674,10 +2632,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-27 13:42:54</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44282.57145833333</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2752,10 +2708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-27 12:41:25</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44282.52876157407</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2823,10 +2777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-27 11:53:01</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44282.49515046296</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2902,10 +2854,8 @@
           <t>4322540390</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-27 11:26:47</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44282.47693287037</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2973,10 +2923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-27 11:26:31</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44282.47674768518</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3044,10 +2992,8 @@
           <t>4318677542</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-27 10:23:37</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44282.43306712963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3115,10 +3061,8 @@
           <t>4322105817</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-27 09:32:12</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44282.39736111111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3186,10 +3130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-27 09:23:17</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44282.39116898148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3254,10 +3196,8 @@
           <t>4321949293</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-27 08:42:02</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44282.36252314815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3325,10 +3265,8 @@
           <t>4318653892</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-27 07:41:07</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44282.32021990741</v>
       </c>
       <c r="I40" t="n">
         <v>9</v>
@@ -3404,10 +3342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-27 00:40:03</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44282.0278125</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3483,10 +3419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-27 00:39:33</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44282.02746527778</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3562,10 +3496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-27 00:15:45</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44282.0109375</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3637,10 +3569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-27 00:05:02</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44282.00349537037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3716,10 +3646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:44:45</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44281.98940972222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3788,10 +3716,8 @@
           <t>4320984760</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:37:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44281.98416666667</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3863,10 +3789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:18:09</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44281.9709375</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3934,10 +3858,8 @@
           <t>4320875401</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:15:53</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44281.96936342592</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4016,10 +3938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-26 22:41:55</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44281.94577546296</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4087,10 +4007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-26 22:03:57</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44281.91940972222</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4167,10 +4085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:28:29</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44281.85311342592</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4234,10 +4150,8 @@
           <t>4319977593</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:27:57</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44281.85274305556</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4313,10 +4227,8 @@
           <t>4319933026</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:19:15</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44281.84670138889</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4395,10 +4307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:13:59</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44281.84304398148</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4470,10 +4380,8 @@
           <t>4319866031</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:05:09</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44281.83690972222</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4541,10 +4449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:04:09</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44281.83621527778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4623,10 +4529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:37:30</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44281.81770833334</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4705,10 +4609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:23:02</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44281.80766203703</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4780,10 +4682,8 @@
           <t>4319638879</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:22:15</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44281.80711805556</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4851,10 +4751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:11:07</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44281.79938657407</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4922,10 +4820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:08:03</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44281.79725694445</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -5001,10 +4897,8 @@
           <t>4318334713</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:06:32</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44281.79620370371</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5072,10 +4966,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:06:12</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44281.79597222222</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5147,10 +5039,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:03:36</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44281.79416666667</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5222,10 +5112,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:57:49</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44281.79015046296</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5297,10 +5185,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:55:00</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44281.78819444445</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5372,10 +5258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:31:10</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44281.77164351852</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -5443,10 +5327,8 @@
           <t>4319358017</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:30:15</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44281.77100694444</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5514,10 +5396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:26:37</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44281.7684837963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5593,10 +5473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:25:58</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44281.76803240741</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5660,10 +5538,8 @@
           <t>4318584687</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:19:01</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44281.76320601852</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5727,10 +5603,8 @@
           <t>4319294319</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:18:56</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44281.76314814815</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5803,10 +5677,8 @@
           <t>4318584687</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:17:53</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44281.76241898148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5878,10 +5750,8 @@
           <t>4318853496</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:16:36</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44281.76152777778</v>
       </c>
       <c r="I74" t="n">
         <v>5</v>
@@ -5953,10 +5823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:14:03</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44281.75975694445</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6024,10 +5892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:13:22</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44281.75928240741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6091,10 +5957,8 @@
           <t>4319247858</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:09:37</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44281.75667824074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6162,10 +6026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:06:15</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44281.75434027778</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6233,10 +6095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:59:54</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44281.74993055555</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6313,10 +6173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:57:37</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44281.74834490741</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6393,10 +6251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:53:18</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44281.74534722222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6468,10 +6324,8 @@
           <t>4319158311</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:52:20</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44281.74467592593</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6535,10 +6389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:50:25</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44281.74334490741</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6610,10 +6462,8 @@
           <t>4318269947</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:49:36</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44281.74277777778</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6689,10 +6539,8 @@
           <t>4319109743</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:41:53</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44281.73741898148</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6764,10 +6612,8 @@
           <t>4319105508</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:39:01</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44281.73542824074</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6843,10 +6689,8 @@
           <t>4319086399</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:35:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44281.73306712963</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6918,10 +6762,8 @@
           <t>4319073035</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:33:28</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44281.73157407407</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6997,10 +6839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:28:25</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44281.72806712963</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7076,10 +6916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:28:18</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44281.72798611111</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7147,10 +6985,8 @@
           <t>4318334713</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:27:55</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44281.72771990741</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7214,10 +7050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:21:35</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44281.72332175926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7294,10 +7128,8 @@
           <t>4319020390</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:20:12</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44281.72236111111</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7371,10 +7203,8 @@
           <t>4319016869</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:19:30</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44281.721875</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7446,10 +7276,8 @@
           <t>4318172012</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:17:41</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44281.72061342592</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7524,10 +7352,8 @@
           <t>4319003112</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:16:51</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44281.72003472222</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7599,10 +7425,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:14:11</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44281.71818287037</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7674,10 +7498,8 @@
           <t>4318976434</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:10:20</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44281.71550925926</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7741,10 +7563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:10:17</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44281.71547453704</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7820,10 +7640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:57:01</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44281.70626157407</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7899,10 +7717,8 @@
           <t>4318909334</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:56:04</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44281.70560185185</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7978,10 +7794,8 @@
           <t>4318677542</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:52:09</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44281.70288194445</v>
       </c>
       <c r="I102" t="n">
         <v>5</v>
@@ -8049,10 +7863,8 @@
           <t>4318353965</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:49:09</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44281.70079861111</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8129,10 +7941,8 @@
           <t>4318883822</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:48:11</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44281.70012731481</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8208,10 +8018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:46:48</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44281.69916666667</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8287,10 +8095,8 @@
           <t>4318353965</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:45:40</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44281.69837962963</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8362,10 +8168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:42:47</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44281.69637731482</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8437,10 +8241,8 @@
           <t>4318861266</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:41:58</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44281.69581018519</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8512,10 +8314,8 @@
           <t>4318853496</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:40:05</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44281.69450231481</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8587,10 +8387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:39:59</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44281.69443287037</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8667,10 +8465,8 @@
           <t>4318353965</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:39:45</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44281.69427083333</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8747,10 +8543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:38:42</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44281.69354166667</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8826,10 +8620,8 @@
           <t>4318584687</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:37:35</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44281.69276620371</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8893,10 +8685,8 @@
           <t>4318472551</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:35:28</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44281.6912962963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8972,10 +8762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:32:28</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44281.68921296296</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -9043,10 +8831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:29:53</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44281.68741898148</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9122,10 +8908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:28:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44281.68626157408</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9202,10 +8986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:26:56</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44281.68537037037</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9273,10 +9055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:26:02</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44281.68474537037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9352,10 +9132,8 @@
           <t>4318677542</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:25:51</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44281.68461805556</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9423,10 +9201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:24:43</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44281.68383101852</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9507,10 +9283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:24:31</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44281.68369212963</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9578,10 +9352,8 @@
           <t>4318796977</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:23:59</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44281.68332175926</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9649,10 +9421,8 @@
           <t>4318786401</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:21:13</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44281.68140046296</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9716,10 +9486,8 @@
           <t>4318783710</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:21:10</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44281.68136574074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9787,10 +9555,8 @@
           <t>4318769796</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:17:51</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44281.6790625</v>
       </c>
       <c r="I126" t="n">
         <v>5</v>
@@ -9855,10 +9621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:14:18</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44281.67659722222</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9922,10 +9686,8 @@
           <t>4318754918</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:13:33</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44281.67607638889</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -10001,10 +9763,8 @@
           <t>4318417524</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:09:31</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44281.67327546296</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10075,10 +9835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:07:22</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44281.67178240741</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10146,10 +9904,8 @@
           <t>4318393779</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:06:49</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44281.67140046296</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -10227,10 +9983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:04:12</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44281.66958333334</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10298,10 +10052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:03:47</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44281.66929398148</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10376,10 +10128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:01:45</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44281.66788194444</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10447,10 +10197,8 @@
           <t>4318592598</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:00:47</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44281.66721064815</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10522,10 +10270,8 @@
           <t>4318417524</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:59:28</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44281.66629629629</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10585,10 +10331,8 @@
           <t>4318238210</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:58:53</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44281.6658912037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10660,10 +10404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:58:03</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44281.6653125</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10727,10 +10469,8 @@
           <t>4318264864</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:57:17</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44281.66478009259</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10802,10 +10542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:56:39</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44281.66434027778</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10869,10 +10607,8 @@
           <t>4318628963</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:55:34</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44281.66358796296</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10948,10 +10684,8 @@
           <t>4318592598</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:55:18</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44281.66340277778</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -11028,10 +10762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:53:00</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44281.66180555556</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11099,10 +10831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:53:00</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44281.66180555556</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11166,10 +10896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:51:53</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44281.66103009259</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11242,10 +10970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:51:37</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44281.6608449074</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11317,10 +11043,8 @@
           <t>4318641424</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:50:14</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44281.65988425926</v>
       </c>
       <c r="I147" t="n">
         <v>6</v>
@@ -11396,10 +11120,8 @@
           <t>4318677542</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:48:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44281.65879629629</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11467,10 +11189,8 @@
           <t>4318472551</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:46:24</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44281.65722222222</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11542,10 +11262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:44:42</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44281.65604166667</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11613,10 +11331,8 @@
           <t>4318653892</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:43:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44281.65510416667</v>
       </c>
       <c r="I151" t="n">
         <v>75</v>
@@ -11684,10 +11400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:43:01</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44281.65487268518</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11763,10 +11477,8 @@
           <t>4318657761</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:42:39</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44281.65461805555</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11842,10 +11554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:41:50</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44281.65405092593</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11921,10 +11631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:39:37</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44281.65251157407</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11997,10 +11705,8 @@
           <t>4318641424</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:36:56</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44281.65064814815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12076,10 +11782,8 @@
           <t>4318584687</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:35:56</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44281.6499537037</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12143,10 +11847,8 @@
           <t>4318624662</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:35:04</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44281.64935185185</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12210,10 +11912,8 @@
           <t>4318628963</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:34:42</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44281.64909722222</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12281,10 +11981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:32:27</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44281.64753472222</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12356,10 +12054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:31:59</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44281.64721064815</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12435,10 +12131,8 @@
           <t>4318606907</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:27:57</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44281.64440972222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12502,10 +12196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:27:28</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44281.64407407407</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12569,10 +12261,8 @@
           <t>4318597829</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:24:12</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44281.64180555556</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12644,10 +12334,8 @@
           <t>4318592598</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:23:55</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44281.64160879629</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12715,10 +12403,8 @@
           <t>4318591138</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:22:30</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44281.640625</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12790,10 +12476,8 @@
           <t>4318584687</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:21:13</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44281.6397337963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12857,10 +12541,8 @@
           <t>4318583892</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:20:26</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44281.63918981481</v>
       </c>
       <c r="I168" t="n">
         <v>10</v>
@@ -12928,10 +12610,8 @@
           <t>4318268994</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:20:06</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44281.63895833334</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -13003,10 +12683,8 @@
           <t>4318268994</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:19:47</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44281.63873842593</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13078,10 +12756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:19:11</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44281.63832175926</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13158,10 +12834,8 @@
           <t>4318576332</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:17:53</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44281.63741898148</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13233,10 +12907,8 @@
           <t>4318405681</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:17:35</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44281.63721064815</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13304,10 +12976,8 @@
           <t>4318575075</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:16:40</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44281.63657407407</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13379,10 +13049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:16:19</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44281.63633101852</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -13458,10 +13126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:13:09</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44281.63413194445</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13533,10 +13199,8 @@
           <t>4318558312</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:12:07</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44281.63341435185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13612,10 +13276,8 @@
           <t>4318184122</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:12:05</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44281.6333912037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13691,10 +13353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:11:11</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44281.6327662037</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13770,10 +13430,8 @@
           <t>4318371030</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:10:43</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44281.63244212963</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13841,10 +13499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:10:39</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44281.63239583333</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13916,10 +13572,8 @@
           <t>4318556507</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:10:24</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44281.63222222222</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13983,10 +13637,8 @@
           <t>4318547983</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:09:55</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44281.63188657408</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -14054,10 +13706,8 @@
           <t>4318555328</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:09:19</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44281.63146990741</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14129,10 +13779,8 @@
           <t>4318551876</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:09:07</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44281.63133101852</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14200,10 +13848,8 @@
           <t>4318533480</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:05:47</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44281.6290162037</v>
       </c>
       <c r="I186" t="n">
         <v>2</v>
@@ -14271,10 +13917,8 @@
           <t>4318537504</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:04:55</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44281.62841435185</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14342,10 +13986,8 @@
           <t>4318245932</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:01:23</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44281.62596064815</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14421,10 +14063,8 @@
           <t>4318526485</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:00:49</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44281.62556712963</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14488,10 +14128,8 @@
           <t>4318520900</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:58:42</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44281.62409722222</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14559,10 +14197,8 @@
           <t>4318371030</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:57:48</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44281.62347222222</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14630,10 +14266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:57:09</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44281.62302083334</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14701,10 +14335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:56:13</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44281.62237268518</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14772,10 +14404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:54:04</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44281.62087962963</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14851,10 +14481,8 @@
           <t>4318489550</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:52:20</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44281.61967592593</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14930,10 +14558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:52:11</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44281.61957175926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -15009,10 +14635,8 @@
           <t>4318487758</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:50:37</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44281.61848379629</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -15088,10 +14712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:48:19</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44281.61688657408</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15163,10 +14785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:47:45</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44281.61649305555</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15242,10 +14862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:45:44</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44281.61509259259</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15309,10 +14927,8 @@
           <t>4318472476</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:45:44</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44281.61509259259</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15388,10 +15004,8 @@
           <t>4318472551</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:45:31</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44281.61494212963</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15467,10 +15081,8 @@
           <t>4318472476</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:45:27</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44281.61489583334</v>
       </c>
       <c r="I203" t="n">
         <v>15</v>
@@ -15546,10 +15158,8 @@
           <t>4318219357</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:44:39</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44281.61434027777</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15617,10 +15227,8 @@
           <t>4318470160</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:43:13</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44281.6133449074</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15684,10 +15292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:41:26</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44281.61210648148</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15755,10 +15361,8 @@
           <t>4318462239</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:40:55</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44281.61174768519</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15822,10 +15426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:39:42</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44281.61090277778</v>
       </c>
       <c r="I208" t="n">
         <v>4</v>
@@ -15909,10 +15511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:39:12</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44281.61055555556</v>
       </c>
       <c r="I209" t="n">
         <v>54</v>
@@ -15988,10 +15588,8 @@
           <t>4318449836</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:38:36</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44281.61013888889</v>
       </c>
       <c r="I210" t="n">
         <v>16</v>
@@ -16063,10 +15661,8 @@
           <t>4318428031</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:38:18</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44281.60993055555</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16142,10 +15738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:38:01</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44281.60973379629</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16217,10 +15811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:37:17</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44281.60922453704</v>
       </c>
       <c r="I213" t="n">
         <v>44</v>
@@ -16296,10 +15888,8 @@
           <t>4318245932</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:36:50</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44281.60891203704</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16367,10 +15957,8 @@
           <t>4318450865</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:36:25</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44281.60862268518</v>
       </c>
       <c r="I215" t="n">
         <v>2</v>
@@ -16438,10 +16026,8 @@
           <t>4318431000</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:34:06</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44281.60701388889</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16517,10 +16103,8 @@
           <t>4318429701</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:33:14</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44281.60641203704</v>
       </c>
       <c r="I217" t="n">
         <v>30</v>
@@ -16596,10 +16180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:32:51</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44281.60614583334</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16667,10 +16249,8 @@
           <t>4318428322</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:31:55</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44281.60549768519</v>
       </c>
       <c r="I219" t="n">
         <v>23</v>
@@ -16742,10 +16322,8 @@
           <t>4318428031</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:31:39</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44281.6053125</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16809,10 +16387,8 @@
           <t>4318431000</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:30:11</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44281.60429398148</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16876,10 +16452,8 @@
           <t>4318426419</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:30:06</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44281.60423611111</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -16951,10 +16525,8 @@
           <t>4318393779</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:29:41</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44281.60394675926</v>
       </c>
       <c r="I223" t="n">
         <v>51</v>
@@ -17026,10 +16598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:28:31</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44281.60313657407</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17105,10 +16675,8 @@
           <t>4318336338</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:28:18</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44281.60298611111</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -17190,10 +16758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:27:56</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44281.60273148148</v>
       </c>
       <c r="I226" t="n">
         <v>9</v>
@@ -17265,10 +16831,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:27:11</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44281.60221064815</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -17340,10 +16904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:27:09</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44281.6021875</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17415,10 +16977,8 @@
           <t>4318417524</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:26:51</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44281.60197916667</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17489,10 +17049,8 @@
           <t>4318412166</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:26:04</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44281.60143518518</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17556,10 +17114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:25:41</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44281.60116898148</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17635,10 +17191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:25:28</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44281.60101851852</v>
       </c>
       <c r="I232" t="n">
         <v>472</v>
@@ -17715,10 +17269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:25:24</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44281.60097222222</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17782,10 +17334,8 @@
           <t>4318269947</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:24:58</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44281.6006712963</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17853,10 +17403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:24:38</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44281.60043981481</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17932,10 +17480,8 @@
           <t>4318393779</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:24:29</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44281.60033564815</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -18011,10 +17557,8 @@
           <t>4318393779</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:24:22</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44281.60025462963</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -18078,10 +17622,8 @@
           <t>4318405921</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:22:11</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44281.59873842593</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18152,10 +17694,8 @@
           <t>4318405681</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:21:57</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44281.59857638889</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -18223,10 +17763,8 @@
           <t>4318401816</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:21:28</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44281.59824074074</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18298,10 +17836,8 @@
           <t>4318393779</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:20:05</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44281.5972800926</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -18377,10 +17913,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:19:57</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44281.5971875</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18456,10 +17990,8 @@
           <t>4318172012</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:19:24</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44281.59680555556</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18535,10 +18067,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:18:19</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44281.59605324074</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18606,10 +18136,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:17:20</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44281.59537037037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18677,10 +18205,8 @@
           <t>4318245932</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:17:09</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44281.59524305556</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18756,10 +18282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:16:43</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44281.59494212963</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18827,10 +18351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:16:05</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44281.59450231482</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18894,10 +18416,8 @@
           <t>4318184122</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:15:25</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44281.59403935185</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18969,10 +18489,8 @@
           <t>4318380283</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:14:57</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44281.59371527778</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -19044,10 +18562,8 @@
           <t>4318374824</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:14:54</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44281.59368055555</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -19119,10 +18635,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:14:19</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44281.59327546296</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19190,10 +18704,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:12:38</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44281.59210648148</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19261,10 +18773,8 @@
           <t>4318342053</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:12:37</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44281.59209490741</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19328,10 +18838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:11:51</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44281.5915625</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19399,10 +18907,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:11:17</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44281.59116898148</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19470,10 +18976,8 @@
           <t>4318371030</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:11:13</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44281.59112268518</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19545,10 +19049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:10:22</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44281.5905324074</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19608,10 +19110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:10:21</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44281.59052083334</v>
       </c>
       <c r="I259" t="n">
         <v>732</v>
@@ -19687,10 +19187,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:09:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44281.58988425926</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19758,10 +19256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:08:59</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44281.58957175926</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19825,10 +19321,8 @@
           <t>4318353965</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:08:55</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44281.58952546296</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19900,10 +19394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:08:34</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44281.58928240741</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19979,10 +19471,8 @@
           <t>4318238715</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:08:27</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44281.58920138889</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -20058,10 +19548,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:07:16</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44281.58837962963</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20129,10 +19617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:06:28</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44281.58782407407</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20208,10 +19694,8 @@
           <t>4318351015</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:06:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44281.58753472222</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20283,10 +19767,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:05:57</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44281.58746527778</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20354,10 +19836,8 @@
           <t>4318348804</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:05:56</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44281.5874537037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20429,10 +19909,8 @@
           <t>4318339990</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:05:00</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44281.58680555555</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20508,10 +19986,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:04:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44281.58611111111</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20579,10 +20055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:03:35</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44281.58582175926</v>
       </c>
       <c r="I272" t="n">
         <v>141</v>
@@ -20650,10 +20124,8 @@
           <t>4318238715</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:03:35</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44281.58582175926</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20721,10 +20193,8 @@
           <t>4318342974</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:03:27</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44281.58572916667</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20792,10 +20262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:03:19</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44281.58563657408</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20863,10 +20331,8 @@
           <t>4318342849</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:03:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44281.58563657408</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20930,10 +20396,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:03:17</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44281.58561342592</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -21001,10 +20465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:03:05</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44281.58547453704</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -21072,10 +20534,8 @@
           <t>4318337840</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:02:58</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44281.58539351852</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21143,10 +20603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:02:48</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44281.58527777778</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21210,10 +20668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:02:42</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44281.58520833333</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21273,10 +20729,8 @@
           <t>4318342053</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:02:37</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44281.58515046296</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21348,10 +20802,8 @@
           <t>4318334713</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:02:00</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44281.58472222222</v>
       </c>
       <c r="I283" t="n">
         <v>13</v>
@@ -21415,10 +20867,8 @@
           <t>4318336338</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:01:35</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44281.58443287037</v>
       </c>
       <c r="I284" t="n">
         <v>2</v>
@@ -21490,10 +20940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:01:17</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44281.58422453704</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21569,10 +21017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:01:10</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44281.58414351852</v>
       </c>
       <c r="I286" t="n">
         <v>36</v>
@@ -21644,10 +21090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:00:12</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44281.58347222222</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21720,10 +21164,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:59:59</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44281.58332175926</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21791,10 +21233,8 @@
           <t>4318332378</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:59:48</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44281.58319444444</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21870,10 +21310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:59:32</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44281.58300925926</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21949,10 +21387,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:58:28</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44281.58226851852</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -22024,10 +21460,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:57:44</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44281.58175925926</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22103,10 +21537,8 @@
           <t>4318321956</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:57:23</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44281.5815162037</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22178,10 +21610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:56:13</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44281.58070601852</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22257,10 +21687,8 @@
           <t>4318309775</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:55:13</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44281.58001157407</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22324,10 +21752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:54:54</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44281.57979166666</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22399,10 +21825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:54:51</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44281.57975694445</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22470,10 +21894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:54:30</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44281.57951388889</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22549,10 +21971,8 @@
           <t>4318308725</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:54:12</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44281.57930555556</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22628,10 +22048,8 @@
           <t>4318308666</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:54:09</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44281.57927083333</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22699,10 +22117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:54:08</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44281.57925925926</v>
       </c>
       <c r="I301" t="n">
         <v>28</v>
@@ -22778,10 +22194,8 @@
           <t>4318238715</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:53:41</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44281.57894675926</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22857,10 +22271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:53:26</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44281.57877314815</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22936,10 +22348,8 @@
           <t>4318307304</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:52:51</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44281.57836805555</v>
       </c>
       <c r="I304" t="n">
         <v>21</v>
@@ -23007,10 +22417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:52:33</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44281.57815972222</v>
       </c>
       <c r="I305" t="n">
         <v>15</v>
@@ -23086,10 +22494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:52:01</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44281.57778935185</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23165,10 +22571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:51:34</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44281.57747685185</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23232,10 +22636,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:51:32</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44281.57745370371</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23303,10 +22705,8 @@
           <t>4318299949</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:51:27</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44281.57739583333</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23374,10 +22774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:51:21</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44281.57732638889</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23441,10 +22839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:51:09</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44281.5771875</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23516,10 +22912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:50:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44281.57702546296</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23587,10 +22981,8 @@
           <t>4318305136</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:50:50</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44281.57696759259</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23658,10 +23050,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:50:26</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44281.57668981481</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23729,10 +23119,8 @@
           <t>4318294453</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:50:12</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44281.57652777778</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23800,10 +23188,8 @@
           <t>4318269947</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:50:06</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44281.57645833334</v>
       </c>
       <c r="I316" t="n">
         <v>3</v>
@@ -23871,10 +23257,8 @@
           <t>4318296995</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:48:46</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44281.57553240741</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23942,10 +23326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:48:40</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44281.57546296297</v>
       </c>
       <c r="I318" t="n">
         <v>2</v>
@@ -24021,10 +23403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:46:27</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44281.57392361111</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -24096,10 +23476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:46:23</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44281.57387731481</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24167,10 +23545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:46:08</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44281.5737037037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24238,10 +23614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:46:04</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44281.57365740741</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24305,10 +23679,8 @@
           <t>4318278931</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:45:12</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44281.57305555556</v>
       </c>
       <c r="I323" t="n">
         <v>11</v>
@@ -24372,10 +23744,8 @@
           <t>4318238715</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:45:06</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44281.57298611111</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24451,10 +23821,8 @@
           <t>4318282600</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:49</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44281.57278935185</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24526,10 +23894,8 @@
           <t>4318282567</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:47</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44281.5727662037</v>
       </c>
       <c r="I326" t="n">
         <v>11</v>
@@ -24593,10 +23959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:30</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44281.57256944444</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24664,10 +24028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:16</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44281.57240740741</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24731,10 +24093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:08</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44281.57231481482</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24798,10 +24158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:00</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44281.57222222222</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24865,10 +24223,8 @@
           <t>4318172012</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:43:55</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44281.57216435186</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24932,10 +24288,8 @@
           <t>4318277483</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:43:54</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44281.57215277778</v>
       </c>
       <c r="I332" t="n">
         <v>5</v>
@@ -25008,10 +24362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:43:18</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44281.57173611111</v>
       </c>
       <c r="I333" t="n">
         <v>33</v>
@@ -25081,10 +24433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:42:55</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44281.57146990741</v>
       </c>
       <c r="I334" t="n">
         <v>22</v>
@@ -25161,10 +24511,8 @@
           <t>4318269947</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:42:24</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44281.57111111111</v>
       </c>
       <c r="I335" t="n">
         <v>16</v>
@@ -25236,10 +24584,8 @@
           <t>4318206935</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:42:18</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44281.57104166667</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25315,10 +24661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:42:17</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44281.57103009259</v>
       </c>
       <c r="I337" t="n">
         <v>25</v>
@@ -25390,10 +24734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:42:14</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44281.57099537037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25461,10 +24803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:42:07</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44281.57091435185</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25540,10 +24880,8 @@
           <t>4318264864</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:41:33</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44281.57052083333</v>
       </c>
       <c r="I340" t="n">
         <v>6</v>
@@ -25607,10 +24945,8 @@
           <t>4318268994</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:41:32</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44281.57050925926</v>
       </c>
       <c r="I341" t="n">
         <v>7</v>
@@ -25678,10 +25014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:39:50</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44281.56932870371</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25757,10 +25091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:39:49</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44281.56931712963</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25836,10 +25168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:39:15</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44281.56892361111</v>
       </c>
       <c r="I344" t="n">
         <v>6</v>
@@ -25907,10 +25237,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:38:33</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44281.5684375</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25986,10 +25314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:38:25</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44281.56834490741</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -26057,10 +25383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:38:21</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44281.56829861111</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26128,10 +25452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:38:05</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44281.56811342593</v>
       </c>
       <c r="I348" t="n">
         <v>180</v>
@@ -26207,10 +25529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:37:51</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44281.56795138889</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26278,10 +25598,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:37:36</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44281.56777777777</v>
       </c>
       <c r="I350" t="n">
         <v>3</v>
@@ -26357,10 +25675,8 @@
           <t>4318248481</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:35:59</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44281.5666550926</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26424,10 +25740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:35:34</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44281.56636574074</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26496,10 +25810,8 @@
           <t>4318247927</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:35:31</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44281.56633101852</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26563,10 +25875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:34:07</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44281.5653587963</v>
       </c>
       <c r="I354" t="n">
         <v>9</v>
@@ -26639,10 +25949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:33:59</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44281.5652662037</v>
       </c>
       <c r="I355" t="n">
         <v>2</v>
@@ -26706,10 +26014,8 @@
           <t>4318245932</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:33:49</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44281.56515046296</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26777,10 +26083,8 @@
           <t>4318243497</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:33:32</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44281.5649537037</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26856,10 +26160,8 @@
           <t>4318239716</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:33:27</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44281.56489583333</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26935,10 +26237,8 @@
           <t>4318206935</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:33:19</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44281.56480324074</v>
       </c>
       <c r="I359" t="n">
         <v>3</v>
@@ -27014,10 +26314,8 @@
           <t>4318206935</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:33:11</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44281.56471064815</v>
       </c>
       <c r="I360" t="n">
         <v>3</v>
@@ -27093,10 +26391,8 @@
           <t>4318238715</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:32:39</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44281.56434027778</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27165,10 +26461,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:32:31</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44281.56424768519</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27240,10 +26534,8 @@
           <t>4318238210</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:32:12</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44281.56402777778</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27315,10 +26607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:31:50</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44281.56377314815</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27382,10 +26672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:31:43</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44281.56369212963</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27453,10 +26741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:31:35</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44281.56359953704</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27524,10 +26810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:31:28</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44281.56351851852</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27595,10 +26879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:31:25</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44281.56348379629</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -27674,10 +26956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:31:25</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44281.56348379629</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27745,10 +27025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:30:41</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44281.56297453704</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27820,10 +27098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:30:25</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44281.56278935185</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27895,10 +27171,8 @@
           <t>4318229707</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:30:21</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44281.56274305555</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27962,10 +27236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:29:29</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44281.56214120371</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -28041,10 +27313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:28:28</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44281.56143518518</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -28108,10 +27378,8 @@
           <t>4318227356</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:28:25</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44281.56140046296</v>
       </c>
       <c r="I375" t="n">
         <v>3</v>
@@ -28181,10 +27449,8 @@
           <t>4318219357</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:28:23</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44281.56137731481</v>
       </c>
       <c r="I376" t="n">
         <v>36</v>
@@ -28256,10 +27522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:28:22</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44281.56136574074</v>
       </c>
       <c r="I377" t="n">
         <v>77</v>
@@ -28331,10 +27595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:27:58</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44281.56108796296</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28404,10 +27666,8 @@
           <t>4318206935</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:27:51</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44281.56100694444</v>
       </c>
       <c r="I379" t="n">
         <v>6</v>
@@ -28483,10 +27743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:26:55</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44281.5603587963</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28554,10 +27812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:26:49</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44281.56028935185</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28629,10 +27885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:26:37</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44281.56015046296</v>
       </c>
       <c r="I382" t="n">
         <v>6</v>
@@ -28700,10 +27954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:26:12</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44281.55986111111</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28779,10 +28031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:25:44</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44281.55953703704</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28858,10 +28108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:25:15</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44281.55920138889</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28929,10 +28177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:25:04</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44281.55907407407</v>
       </c>
       <c r="I386" t="n">
         <v>4</v>
@@ -28992,10 +28238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:24:29</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44281.55866898148</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -29063,10 +28307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:24:22</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44281.55858796297</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -29142,10 +28384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:24:21</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44281.55857638889</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29221,10 +28461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:24:04</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44281.55837962963</v>
       </c>
       <c r="I390" t="n">
         <v>8</v>
@@ -29300,10 +28538,8 @@
           <t>4318212006</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:24:04</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44281.55837962963</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29379,10 +28615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:23:35</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44281.55804398148</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29446,10 +28680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:23:21</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44281.55788194444</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29521,10 +28753,8 @@
           <t>4318202839</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:23:11</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44281.5577662037</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29602,10 +28832,8 @@
           <t>4318206935</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:23:11</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44281.5577662037</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29669,10 +28897,8 @@
           <t>4318206788</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:23:03</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44281.55767361111</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29744,10 +28970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:22:25</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44281.55723379629</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29819,10 +29043,8 @@
           <t>4318201781</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:22:22</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44281.55719907407</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29886,10 +29108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:21:37</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44281.55667824074</v>
       </c>
       <c r="I399" t="n">
         <v>17</v>
@@ -29965,10 +29185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:21:35</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44281.55665509259</v>
       </c>
       <c r="I400" t="n">
         <v>9</v>
@@ -30036,10 +29254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:20:20</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44281.55578703704</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30111,10 +29327,8 @@
           <t>4318186676</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:30</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44281.55451388889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30178,10 +29392,8 @@
           <t>4318186695</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:30</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44281.55451388889</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -30249,10 +29461,8 @@
           <t>4318172012</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:23</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44281.55443287037</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30328,10 +29538,8 @@
           <t>4318172012</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:11</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44281.55429398148</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30407,10 +29615,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:04</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44281.55421296296</v>
       </c>
       <c r="I406" t="n">
         <v>7</v>
@@ -30478,10 +29684,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:00</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44281.55416666667</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30553,10 +29757,8 @@
           <t>4318184122</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:17:57</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44281.55413194445</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30632,10 +29834,8 @@
           <t>4318177442</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:17:43</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44281.55396990741</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30711,10 +29911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:17:07</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44281.55355324074</v>
       </c>
       <c r="I410" t="n">
         <v>8</v>
@@ -30782,10 +29980,8 @@
           <t>4318172012</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:16:43</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44281.55327546296</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30857,10 +30053,8 @@
           <t>4318177993</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:16:29</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44281.55311342593</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30924,10 +30118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:16:28</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44281.55310185185</v>
       </c>
       <c r="I413" t="n">
         <v>5</v>
@@ -31003,10 +30195,8 @@
           <t>4318177442</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:16:06</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44281.55284722222</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -31078,10 +30268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:15:31</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44281.55244212963</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31153,10 +30341,8 @@
           <t>4318172012</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:15:03</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44281.55211805556</v>
       </c>
       <c r="I416" t="n">
         <v>13</v>
@@ -31232,10 +30418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:14:57</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44281.55204861111</v>
       </c>
       <c r="I417" t="n">
         <v>120</v>
@@ -31307,10 +30491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:14:38</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44281.5518287037</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31378,10 +30560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:14:27</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44281.55170138889</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31449,10 +30629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:14:19</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44281.5516087963</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31524,10 +30702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:13:56</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44281.55134259259</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31591,10 +30767,8 @@
           <t>4318162302</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:12:20</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44281.55023148148</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31670,10 +30844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:12:11</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44281.55012731482</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31745,10 +30917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:11:35</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44281.54971064815</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31812,10 +30982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:11:20</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44281.54953703703</v>
       </c>
       <c r="I425" t="n">
         <v>20</v>
@@ -31891,10 +31059,8 @@
           <t>4318156286</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:10:55</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44281.54924768519</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31962,10 +31128,8 @@
           <t>4318141755</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:10:20</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44281.54884259259</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -32041,10 +31205,8 @@
           <t>4318149316</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:10:06</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44281.54868055556</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32112,10 +31274,8 @@
           <t>4318149113</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:09:58</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44281.54858796296</v>
       </c>
       <c r="I429" t="n">
         <v>3</v>
@@ -32187,10 +31347,8 @@
           <t>4318144644</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:09:44</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44281.54842592592</v>
       </c>
       <c r="I430" t="n">
         <v>4</v>
@@ -32266,10 +31424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:09:21</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44281.54815972222</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32345,10 +31501,8 @@
           <t>4318150923</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:09:12</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44281.54805555556</v>
       </c>
       <c r="I432" t="n">
         <v>5</v>
@@ -32424,10 +31578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:09:05</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44281.54797453704</v>
       </c>
       <c r="I433" t="n">
         <v>163</v>
@@ -32495,10 +31647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:08:27</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44281.54753472222</v>
       </c>
       <c r="I434" t="n">
         <v>27</v>
@@ -32562,10 +31712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:08:14</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44281.54738425926</v>
       </c>
       <c r="I435" t="n">
         <v>148</v>
@@ -32649,10 +31797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:08:13</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44281.54737268519</v>
       </c>
       <c r="I436" t="n">
         <v>23</v>
@@ -32724,10 +31870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:07:53</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44281.5471412037</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32791,10 +31935,8 @@
           <t>4318141755</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:07:41</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44281.54700231482</v>
       </c>
       <c r="I438" t="n">
         <v>5</v>
@@ -32870,10 +32012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:06:46</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44281.54636574074</v>
       </c>
       <c r="I439" t="n">
         <v>19</v>
@@ -32941,10 +32081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:06:33</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44281.54621527778</v>
       </c>
       <c r="I440" t="n">
         <v>8</v>
@@ -33020,10 +32158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:05:55</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44281.54577546296</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -33099,10 +32235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:05:43</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44281.54563657408</v>
       </c>
       <c r="I442" t="n">
         <v>228</v>
@@ -33166,10 +32300,8 @@
           <t>4318128189</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:05:15</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44281.5453125</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33245,10 +32377,8 @@
           <t>4318132350</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:05:11</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44281.54526620371</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33312,10 +32442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:05:02</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44281.54516203704</v>
       </c>
       <c r="I445" t="n">
         <v>13</v>
@@ -33383,10 +32511,8 @@
           <t>4318136274</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:05:02</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44281.54516203704</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33450,10 +32576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:04:58</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44281.54511574074</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33525,10 +32649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:04:28</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44281.54476851852</v>
       </c>
       <c r="I448" t="n">
         <v>53</v>
@@ -33604,10 +32726,8 @@
           <t>4318126596</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:04:14</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44281.54460648148</v>
       </c>
       <c r="I449" t="n">
         <v>16</v>
@@ -33675,10 +32795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:03:58</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44281.5444212963</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33746,10 +32864,8 @@
           <t>4318114761</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:59</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44281.54373842593</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33813,10 +32929,8 @@
           <t>4318114609</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:53</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44281.54366898148</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33892,10 +33006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:48</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44281.54361111111</v>
       </c>
       <c r="I453" t="n">
         <v>6</v>
@@ -33963,10 +33075,8 @@
           <t>4318118932</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:48</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44281.54361111111</v>
       </c>
       <c r="I454" t="n">
         <v>2</v>
@@ -34042,10 +33152,8 @@
           <t>4318114477</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:47</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44281.54359953704</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -34117,10 +33225,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:46</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44281.54358796297</v>
       </c>
       <c r="I456" t="n">
         <v>44</v>
@@ -34188,10 +33294,8 @@
           <t>4318118655</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:38</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44281.54349537037</v>
       </c>
       <c r="I457" t="n">
         <v>14</v>
@@ -34263,10 +33367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:09</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44281.54315972222</v>
       </c>
       <c r="I458" t="n">
         <v>778</v>
@@ -34345,10 +33447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:00</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44281.54305555556</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34421,10 +33521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:01:35</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44281.5427662037</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34492,10 +33590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:01:31</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44281.5427199074</v>
       </c>
       <c r="I461" t="n">
         <v>16</v>
@@ -34567,10 +33663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:01:10</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44281.54247685185</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34646,10 +33740,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:01:09</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44281.54246527778</v>
       </c>
       <c r="I463" t="n">
         <v>150</v>
@@ -34725,10 +33817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:00:37</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44281.54209490741</v>
       </c>
       <c r="I464" t="n">
         <v>18</v>
@@ -34800,10 +33890,8 @@
           <t>4318111161</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:00:34</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44281.54206018519</v>
       </c>
       <c r="I465" t="n">
         <v>13</v>
@@ -34879,10 +33967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:00:33</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44281.54204861111</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34959,10 +34045,8 @@
           <t>4318109269</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:00:15</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44281.54184027778</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -35022,10 +34106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:00:13</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44281.54181712963</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -35097,10 +34179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:00:01</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44281.54167824074</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -35164,10 +34244,8 @@
           <t>4318110223</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:56</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44281.54162037037</v>
       </c>
       <c r="I470" t="n">
         <v>77</v>
@@ -35239,10 +34317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:51</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44281.5415625</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35310,10 +34386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:37</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44281.54140046296</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -35385,10 +34459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:30</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44281.54131944444</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35456,10 +34528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:26</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44281.54127314815</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35527,10 +34597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:26</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44281.54127314815</v>
       </c>
       <c r="I475" t="n">
         <v>13</v>
@@ -35606,10 +34674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:22</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44281.54122685185</v>
       </c>
       <c r="I476" t="n">
         <v>98</v>
@@ -35685,10 +34751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:19</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44281.54119212963</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35752,10 +34816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:16</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44281.54115740741</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35823,10 +34885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:15</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44281.54114583333</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35899,10 +34959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:05</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44281.54103009259</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35974,10 +35032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:39</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44281.54072916666</v>
       </c>
       <c r="I481" t="n">
         <v>2</v>
@@ -36047,10 +35103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:39</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44281.54072916666</v>
       </c>
       <c r="I482" t="n">
         <v>1080</v>
@@ -36126,10 +35180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:37</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44281.54070601852</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -36201,10 +35253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:35</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44281.54068287037</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36280,10 +35330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:34</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44281.54067129629</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36351,10 +35399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:30</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44281.540625</v>
       </c>
       <c r="I486" t="n">
         <v>21</v>
@@ -36430,10 +35476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:29</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44281.54061342592</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36509,10 +35553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:28</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44281.54060185186</v>
       </c>
       <c r="I488" t="n">
         <v>2</v>
@@ -36589,10 +35631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:16</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44281.54046296296</v>
       </c>
       <c r="I489" t="n">
         <v>59</v>
@@ -36664,10 +35704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:11</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44281.54040509259</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
